--- a/Code/Results/Cases/Case_3_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_136/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.77673983594616</v>
+        <v>6.815046728013995</v>
       </c>
       <c r="C2">
-        <v>6.04784553030841</v>
+        <v>5.70633596196627</v>
       </c>
       <c r="D2">
-        <v>5.026764677285072</v>
+        <v>4.388557147948176</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.10646465099091</v>
+        <v>20.57419389904199</v>
       </c>
       <c r="G2">
-        <v>17.50261793045879</v>
+        <v>22.33688830220235</v>
       </c>
       <c r="H2">
-        <v>7.642686211587328</v>
+        <v>12.72332909067796</v>
       </c>
       <c r="I2">
-        <v>11.36097490164624</v>
+        <v>18.26488392962155</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.921376224410286</v>
+        <v>8.207227890698872</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.95279346377499</v>
+        <v>19.9702627975824</v>
       </c>
       <c r="N2">
-        <v>11.123014345402</v>
+        <v>17.52886423546707</v>
       </c>
       <c r="O2">
-        <v>11.92599948598652</v>
+        <v>18.49877040484611</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.18860817820932</v>
+        <v>6.497506685765712</v>
       </c>
       <c r="C3">
-        <v>5.878531863678507</v>
+        <v>5.639841806035915</v>
       </c>
       <c r="D3">
-        <v>4.796230398972004</v>
+        <v>4.292823474867044</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.80891765428655</v>
+        <v>20.58850134445391</v>
       </c>
       <c r="G3">
-        <v>17.15116739579832</v>
+        <v>22.35810170889689</v>
       </c>
       <c r="H3">
-        <v>7.693049310226893</v>
+        <v>12.75971040644842</v>
       </c>
       <c r="I3">
-        <v>11.47944320539161</v>
+        <v>18.334547005731</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.506730420973009</v>
+        <v>8.02693027849134</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.67047060194236</v>
+        <v>19.3686812694531</v>
       </c>
       <c r="N3">
-        <v>11.33600294672579</v>
+        <v>17.58741963363986</v>
       </c>
       <c r="O3">
-        <v>11.92211787077386</v>
+        <v>18.55277244908273</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.807692942238884</v>
+        <v>6.292897430294553</v>
       </c>
       <c r="C4">
-        <v>5.770973169541223</v>
+        <v>5.598179885013691</v>
       </c>
       <c r="D4">
-        <v>4.647942914738725</v>
+        <v>4.232111532763306</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.63651805705853</v>
+        <v>20.60247818255181</v>
       </c>
       <c r="G4">
-        <v>16.95249189464775</v>
+        <v>22.37825398275167</v>
       </c>
       <c r="H4">
-        <v>7.727994978668782</v>
+        <v>12.78379279349314</v>
       </c>
       <c r="I4">
-        <v>11.56007541377024</v>
+        <v>18.38049201089119</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.240673861763126</v>
+        <v>7.912804917286582</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.21690178252296</v>
+        <v>18.9977209924962</v>
       </c>
       <c r="N4">
-        <v>11.46831723642423</v>
+        <v>17.62494880326924</v>
       </c>
       <c r="O4">
-        <v>11.92922561017358</v>
+        <v>18.58951484654808</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.647566805763203</v>
+        <v>6.207155235874332</v>
       </c>
       <c r="C5">
-        <v>5.726297314794194</v>
+        <v>5.58100310963731</v>
       </c>
       <c r="D5">
-        <v>4.585865406691926</v>
+        <v>4.206903565010457</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.56887870197691</v>
+        <v>20.60947859164298</v>
       </c>
       <c r="G5">
-        <v>16.8758012627812</v>
+        <v>22.38825359897006</v>
       </c>
       <c r="H5">
-        <v>7.743218640745917</v>
+        <v>12.79404535491305</v>
       </c>
       <c r="I5">
-        <v>11.5948424995133</v>
+        <v>18.40001218088663</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.129476378127608</v>
+        <v>7.865475436861673</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.61067593935712</v>
+        <v>18.84640825553386</v>
       </c>
       <c r="N5">
-        <v>11.52268786612963</v>
+        <v>17.64064010491474</v>
       </c>
       <c r="O5">
-        <v>11.93442093971999</v>
+        <v>18.60538781691321</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.620684623611437</v>
+        <v>6.192777138102747</v>
       </c>
       <c r="C6">
-        <v>5.718829695483788</v>
+        <v>5.578139200691145</v>
       </c>
       <c r="D6">
-        <v>4.575459334581904</v>
+        <v>4.202690128599958</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.55780578392957</v>
+        <v>20.61071976949599</v>
       </c>
       <c r="G6">
-        <v>16.86332356198045</v>
+        <v>22.39002182045977</v>
       </c>
       <c r="H6">
-        <v>7.745805076610508</v>
+        <v>12.79577429349203</v>
       </c>
       <c r="I6">
-        <v>11.60072870629518</v>
+        <v>18.40330163068156</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.110847680063872</v>
+        <v>7.857567892835828</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.50915364346201</v>
+        <v>18.82128194377804</v>
       </c>
       <c r="N6">
-        <v>11.53174508230966</v>
+        <v>17.64326970970993</v>
       </c>
       <c r="O6">
-        <v>11.93541990078824</v>
+        <v>18.60807783843991</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.805553150708004</v>
+        <v>6.291750556965929</v>
       </c>
       <c r="C7">
-        <v>5.770373995047238</v>
+        <v>5.597949025494041</v>
       </c>
       <c r="D7">
-        <v>4.64711232841356</v>
+        <v>4.231773436720113</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.63559523252549</v>
+        <v>20.60256731132868</v>
       </c>
       <c r="G7">
-        <v>16.95144037803762</v>
+        <v>22.37838161116451</v>
       </c>
       <c r="H7">
-        <v>7.728196346978636</v>
+        <v>12.78392928618558</v>
       </c>
       <c r="I7">
-        <v>11.56053666293376</v>
+        <v>18.38075203930881</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.239185311437256</v>
+        <v>7.912169893666126</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.20878315959854</v>
+        <v>18.99568056979439</v>
       </c>
       <c r="N7">
-        <v>11.46904858980146</v>
+        <v>17.62515880868274</v>
       </c>
       <c r="O7">
-        <v>11.92928648408555</v>
+        <v>18.58972527213907</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.5781045685607</v>
+        <v>6.707593030972865</v>
       </c>
       <c r="C8">
-        <v>5.990248972644728</v>
+        <v>5.683588196532627</v>
       </c>
       <c r="D8">
-        <v>4.948700240870295</v>
+        <v>4.355959554726165</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15.00175122143856</v>
+        <v>20.57804919311189</v>
       </c>
       <c r="G8">
-        <v>17.37786965706572</v>
+        <v>22.34272090556635</v>
       </c>
       <c r="H8">
-        <v>7.659199101834203</v>
+        <v>12.73551151245171</v>
       </c>
       <c r="I8">
-        <v>11.40013776590806</v>
+        <v>18.28824530297574</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.780844974804996</v>
+        <v>8.145793564847722</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.17619967554313</v>
+        <v>19.76331608163918</v>
       </c>
       <c r="N8">
-        <v>11.19617500237955</v>
+        <v>17.5487280139388</v>
       </c>
       <c r="O8">
-        <v>11.92263847201677</v>
+        <v>18.51664548844293</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.93312918150192</v>
+        <v>7.444381231060386</v>
       </c>
       <c r="C9">
-        <v>6.390248875564243</v>
+        <v>5.844455419620427</v>
       </c>
       <c r="D9">
-        <v>5.484955224859389</v>
+        <v>4.583424229520397</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.80009008682381</v>
+        <v>20.5711761033821</v>
       </c>
       <c r="G9">
-        <v>18.35082370940678</v>
+        <v>22.32950421458279</v>
       </c>
       <c r="H9">
-        <v>7.557135518006712</v>
+        <v>12.65439316384579</v>
       </c>
       <c r="I9">
-        <v>11.15185249692417</v>
+        <v>18.13201917438983</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>10.74797371305232</v>
+        <v>8.575228381192419</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.62118976253562</v>
+        <v>21.24554056551027</v>
       </c>
       <c r="N9">
-        <v>10.66985452299108</v>
+        <v>17.41127810301824</v>
       </c>
       <c r="O9">
-        <v>11.9888291229277</v>
+        <v>18.40183771785104</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.82791666250735</v>
+        <v>7.935377701262437</v>
       </c>
       <c r="C10">
-        <v>6.661537100440524</v>
+        <v>5.957748895119175</v>
       </c>
       <c r="D10">
-        <v>5.843367905035595</v>
+        <v>4.739839182718144</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>16.4336803998782</v>
+        <v>20.59122213115236</v>
       </c>
       <c r="G10">
-        <v>19.14996878088139</v>
+        <v>22.35451585171891</v>
       </c>
       <c r="H10">
-        <v>7.50428753088095</v>
+        <v>12.60321210214591</v>
       </c>
       <c r="I10">
-        <v>11.01519774654097</v>
+        <v>18.03260915605867</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.39551955371212</v>
+        <v>8.871331953332106</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.46237291194819</v>
+        <v>22.30749231459095</v>
       </c>
       <c r="N10">
-        <v>10.28271573741336</v>
+        <v>17.31776677671672</v>
       </c>
       <c r="O10">
-        <v>12.09112470584768</v>
+        <v>18.33493815727597</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.21248855218635</v>
+        <v>8.147459601278678</v>
       </c>
       <c r="C11">
-        <v>6.779217295136587</v>
+        <v>6.00810769963093</v>
       </c>
       <c r="D11">
-        <v>5.998341479477107</v>
+        <v>4.808502485489333</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.73179031353584</v>
+        <v>20.60577076146891</v>
       </c>
       <c r="G11">
-        <v>19.53209912986966</v>
+        <v>22.37343934784858</v>
       </c>
       <c r="H11">
-        <v>7.485467802276837</v>
+        <v>12.58175321156163</v>
       </c>
       <c r="I11">
-        <v>10.96423812104821</v>
+        <v>17.99072682809769</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.67541163342483</v>
+        <v>9.001468053454982</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.19575928670078</v>
+        <v>22.78233578281947</v>
       </c>
       <c r="N11">
-        <v>10.10479769362439</v>
+        <v>17.27682609354684</v>
       </c>
       <c r="O11">
-        <v>12.15046989154554</v>
+        <v>18.30830735837555</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.35482992829771</v>
+        <v>8.226125433879119</v>
       </c>
       <c r="C12">
-        <v>6.822876570076537</v>
+        <v>6.026998205906953</v>
       </c>
       <c r="D12">
-        <v>6.055836990090331</v>
+        <v>4.834132582110074</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.84608073212042</v>
+        <v>20.61205773363071</v>
       </c>
       <c r="G12">
-        <v>19.67951659585287</v>
+        <v>22.38168847531701</v>
       </c>
       <c r="H12">
-        <v>7.479126256091502</v>
+        <v>12.57388932554865</v>
       </c>
       <c r="I12">
-        <v>10.94666526757742</v>
+        <v>17.97534782378479</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.77920021871793</v>
+        <v>9.05006432429426</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.8524239273949</v>
+        <v>22.96078560850403</v>
       </c>
       <c r="N12">
-        <v>10.03697860771542</v>
+        <v>17.26155099791131</v>
       </c>
       <c r="O12">
-        <v>12.17488049691048</v>
+        <v>18.29877077804568</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.32432136529245</v>
+        <v>8.209256828222941</v>
       </c>
       <c r="C13">
-        <v>6.813515360100868</v>
+        <v>6.022937922318159</v>
       </c>
       <c r="D13">
-        <v>6.043507688607868</v>
+        <v>4.828629388123741</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.82140399991435</v>
+        <v>20.61066918886039</v>
       </c>
       <c r="G13">
-        <v>19.64764601989314</v>
+        <v>22.37986374544305</v>
       </c>
       <c r="H13">
-        <v>7.480456568607274</v>
+        <v>12.57557129748227</v>
       </c>
       <c r="I13">
-        <v>10.95037133993894</v>
+        <v>17.97863856748709</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.75694687990356</v>
+        <v>9.039629055305912</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.7109442998882</v>
+        <v>22.92241651172361</v>
       </c>
       <c r="N13">
-        <v>10.05160795623846</v>
+        <v>17.26483063618093</v>
       </c>
       <c r="O13">
-        <v>12.16953550181922</v>
+        <v>18.30080026430717</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.2242653017222</v>
+        <v>8.15396457367827</v>
       </c>
       <c r="C14">
-        <v>6.782827781735652</v>
+        <v>6.009665480559086</v>
       </c>
       <c r="D14">
-        <v>6.003095682335329</v>
+        <v>4.810618599431809</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.74116499849886</v>
+        <v>20.60627242789408</v>
       </c>
       <c r="G14">
-        <v>19.54417255798391</v>
+        <v>22.37409631463606</v>
       </c>
       <c r="H14">
-        <v>7.484930151944645</v>
+        <v>12.58110099205699</v>
       </c>
       <c r="I14">
-        <v>10.96275716333567</v>
+        <v>17.98945194584143</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.68399502793419</v>
+        <v>9.005479943631043</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.24976277289343</v>
+        <v>22.79704523091957</v>
       </c>
       <c r="N14">
-        <v>10.09922834031101</v>
+        <v>17.2755648366111</v>
       </c>
       <c r="O14">
-        <v>12.15243877315721</v>
+        <v>18.30751179050232</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.16254812896039</v>
+        <v>8.119881623120257</v>
       </c>
       <c r="C15">
-        <v>6.763910496255774</v>
+        <v>6.001512095966385</v>
       </c>
       <c r="D15">
-        <v>5.978186356005247</v>
+        <v>4.799537760299351</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.69219865160298</v>
+        <v>20.60368046382208</v>
       </c>
       <c r="G15">
-        <v>19.48114701232931</v>
+        <v>22.37070458546194</v>
       </c>
       <c r="H15">
-        <v>7.487773595220859</v>
+        <v>12.58452222358148</v>
       </c>
       <c r="I15">
-        <v>10.97057186589563</v>
+        <v>17.99613810292411</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.63902054250541</v>
+        <v>8.984472849702636</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.96738911905823</v>
+        <v>22.7200692142139</v>
       </c>
       <c r="N15">
-        <v>10.1283328667583</v>
+        <v>17.28216952345553</v>
       </c>
       <c r="O15">
-        <v>12.14222177701412</v>
+        <v>18.31169418359076</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.80232713953581</v>
+        <v>7.921288639885542</v>
       </c>
       <c r="C16">
-        <v>6.653724569176621</v>
+        <v>5.954433263851292</v>
       </c>
       <c r="D16">
-        <v>5.833075151034019</v>
+        <v>4.735300615628509</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>16.41439521267713</v>
+        <v>20.59038035800446</v>
       </c>
       <c r="G16">
-        <v>19.12537260037016</v>
+        <v>22.35343086664999</v>
       </c>
       <c r="H16">
-        <v>7.505625452093276</v>
+        <v>12.60465117819586</v>
       </c>
       <c r="I16">
-        <v>11.01876309923311</v>
+        <v>18.03541352638633</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.37692507409387</v>
+        <v>8.862733050284003</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.34899194103767</v>
+        <v>22.27627870391644</v>
       </c>
       <c r="N16">
-        <v>10.29429192876558</v>
+        <v>17.32047437178367</v>
       </c>
       <c r="O16">
-        <v>12.0875122801341</v>
+        <v>18.33675515460866</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.57554957101493</v>
+        <v>7.796552146661381</v>
       </c>
       <c r="C17">
-        <v>6.584608193226274</v>
+        <v>5.925242918482562</v>
       </c>
       <c r="D17">
-        <v>5.741966592493339</v>
+        <v>4.695245661195078</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>16.24648621366094</v>
+        <v>20.58360989454716</v>
       </c>
       <c r="G17">
-        <v>18.9118993407119</v>
+        <v>22.34476572046909</v>
       </c>
       <c r="H17">
-        <v>7.51793880152471</v>
+        <v>12.61746664033268</v>
       </c>
       <c r="I17">
-        <v>11.05127548946286</v>
+        <v>18.06036359548493</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.21231663774347</v>
+        <v>8.786860812628836</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.35401707835317</v>
+        <v>22.001784180187</v>
       </c>
       <c r="N17">
-        <v>10.39552163489315</v>
+        <v>17.34438136186636</v>
       </c>
       <c r="O17">
-        <v>12.05729842391023</v>
+        <v>18.3531039391557</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.44300155864106</v>
+        <v>7.723746858487164</v>
       </c>
       <c r="C18">
-        <v>6.544320212482256</v>
+        <v>5.908342995178542</v>
       </c>
       <c r="D18">
-        <v>5.68880547050161</v>
+        <v>4.671973389993168</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.15084043828945</v>
+        <v>20.58022699238306</v>
       </c>
       <c r="G18">
-        <v>18.79086198025146</v>
+        <v>22.34049217746954</v>
       </c>
       <c r="H18">
-        <v>7.525510502065994</v>
+        <v>12.62500941037468</v>
       </c>
       <c r="I18">
-        <v>11.07102331201139</v>
+        <v>18.07502853113309</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.11626208527052</v>
+        <v>8.742793113479406</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.78025138211373</v>
+        <v>21.84313574337649</v>
       </c>
       <c r="N18">
-        <v>10.453589632316</v>
+        <v>17.35828254279016</v>
       </c>
       <c r="O18">
-        <v>12.04112019445365</v>
+        <v>18.36286513886711</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.39776203384128</v>
+        <v>7.698914955424161</v>
       </c>
       <c r="C19">
-        <v>6.530589914670576</v>
+        <v>5.902602311426532</v>
       </c>
       <c r="D19">
-        <v>5.670676738470706</v>
+        <v>4.66405407260381</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.11861713048478</v>
+        <v>20.5791694946766</v>
       </c>
       <c r="G19">
-        <v>18.75018003891187</v>
+        <v>22.33916727853104</v>
       </c>
       <c r="H19">
-        <v>7.528157148528317</v>
+        <v>12.62759274784559</v>
       </c>
       <c r="I19">
-        <v>11.07788615048871</v>
+        <v>18.08004779031709</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.08350592365637</v>
+        <v>8.727799908197197</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.58566950237847</v>
+        <v>21.7892941729107</v>
       </c>
       <c r="N19">
-        <v>10.47322847924922</v>
+        <v>17.36301514163209</v>
       </c>
       <c r="O19">
-        <v>12.03584573238352</v>
+        <v>18.36623153024982</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.59990935462013</v>
+        <v>7.809940467821311</v>
       </c>
       <c r="C20">
-        <v>6.592021563875747</v>
+        <v>5.928361779175539</v>
       </c>
       <c r="D20">
-        <v>5.751743901292429</v>
+        <v>4.699533866682298</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>16.26426423695572</v>
+        <v>20.58427772511873</v>
       </c>
       <c r="G20">
-        <v>18.93444294471806</v>
+        <v>22.34561462338402</v>
       </c>
       <c r="H20">
-        <v>7.516577124226624</v>
+        <v>12.61608464762225</v>
       </c>
       <c r="I20">
-        <v>11.04770527054303</v>
+        <v>18.05767508277654</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.22998253525324</v>
+        <v>8.794982042618942</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.46007266059399</v>
+        <v>22.03108525801113</v>
       </c>
       <c r="N20">
-        <v>10.38476297046472</v>
+        <v>17.34182085571151</v>
       </c>
       <c r="O20">
-        <v>12.06038985921708</v>
+        <v>18.35132654218619</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.25374390513437</v>
+        <v>8.170250059147595</v>
       </c>
       <c r="C21">
-        <v>6.791866689770763</v>
+        <v>6.013568859955295</v>
       </c>
       <c r="D21">
-        <v>6.014998191826933</v>
+        <v>4.81591897777867</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.76469514659291</v>
+        <v>20.60754278405679</v>
       </c>
       <c r="G21">
-        <v>19.57449114228375</v>
+        <v>22.37576097208438</v>
       </c>
       <c r="H21">
-        <v>7.483594576244025</v>
+        <v>12.57946967342684</v>
       </c>
       <c r="I21">
-        <v>10.95907141631098</v>
+        <v>17.98626273695202</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.70548323294713</v>
+        <v>9.01552912055738</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.38519434611699</v>
+        <v>22.83390813780775</v>
       </c>
       <c r="N21">
-        <v>10.08525488918405</v>
+        <v>17.27240575940581</v>
       </c>
       <c r="O21">
-        <v>12.15740713027053</v>
+        <v>18.30552557308283</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.6618666941495</v>
+        <v>8.396137145121415</v>
       </c>
       <c r="C22">
-        <v>6.917162447234768</v>
+        <v>6.068207363274011</v>
       </c>
       <c r="D22">
-        <v>6.180101263776433</v>
+        <v>4.889814399258841</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.09993486695042</v>
+        <v>20.62727905507231</v>
       </c>
       <c r="G22">
-        <v>20.00865421821667</v>
+        <v>22.40177533877164</v>
       </c>
       <c r="H22">
-        <v>7.466629635678856</v>
+        <v>12.55706751663458</v>
       </c>
       <c r="I22">
-        <v>10.91125177831878</v>
+        <v>17.94239415669161</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.00337490983941</v>
+        <v>9.155674635604502</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.30006284220564</v>
+        <v>23.35058404071782</v>
       </c>
       <c r="N22">
-        <v>9.886787829604787</v>
+        <v>17.22836868970705</v>
       </c>
       <c r="O22">
-        <v>12.23215512931865</v>
+        <v>18.27878620099404</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.44582120309716</v>
+        <v>8.276461651825253</v>
       </c>
       <c r="C23">
-        <v>6.850805956110584</v>
+        <v>6.039144899836333</v>
       </c>
       <c r="D23">
-        <v>6.092628498436184</v>
+        <v>4.850577520022016</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>16.9202647360142</v>
+        <v>20.61633203151037</v>
       </c>
       <c r="G23">
-        <v>19.77546163110421</v>
+        <v>22.38731438519773</v>
       </c>
       <c r="H23">
-        <v>7.475253017052985</v>
+        <v>12.5688842064185</v>
       </c>
       <c r="I23">
-        <v>10.9358103757021</v>
+        <v>17.96555089703722</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.84559489351955</v>
+        <v>9.081250302938166</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.27684345091043</v>
+        <v>23.07561196366596</v>
       </c>
       <c r="N23">
-        <v>9.993037464203399</v>
+        <v>17.25175094731483</v>
       </c>
       <c r="O23">
-        <v>12.19119071481351</v>
+        <v>18.29276487078497</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.5889030531607</v>
+        <v>7.803891009238301</v>
       </c>
       <c r="C24">
-        <v>6.588671692699691</v>
+        <v>5.926952109072104</v>
       </c>
       <c r="D24">
-        <v>5.747326012310572</v>
+        <v>4.697595928434599</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>16.25622402706416</v>
+        <v>20.58397421163099</v>
       </c>
       <c r="G24">
-        <v>18.92424571594924</v>
+        <v>22.345228628477</v>
       </c>
       <c r="H24">
-        <v>7.517191206834076</v>
+        <v>12.6167089014635</v>
       </c>
       <c r="I24">
-        <v>11.04931608576447</v>
+        <v>18.05888956017525</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.22200019614171</v>
+        <v>8.791311827051986</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.41213051908322</v>
+        <v>22.01784083686032</v>
       </c>
       <c r="N24">
-        <v>10.38962735521399</v>
+        <v>17.34297797223591</v>
       </c>
       <c r="O24">
-        <v>12.05898851534654</v>
+        <v>18.35212897569277</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.58404029081662</v>
+        <v>7.253755656888031</v>
       </c>
       <c r="C25">
-        <v>6.285740465143565</v>
+        <v>5.801755054863947</v>
       </c>
       <c r="D25">
-        <v>5.346004794201123</v>
+        <v>4.523707206124109</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>15.57571841449441</v>
+        <v>20.56862371861476</v>
       </c>
       <c r="G25">
-        <v>18.07286811649254</v>
+        <v>22.32698788862977</v>
       </c>
       <c r="H25">
-        <v>7.580997537647775</v>
+        <v>12.6748587925013</v>
       </c>
       <c r="I25">
-        <v>11.21139430467778</v>
+        <v>18.17158493683058</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.49705891731528</v>
+        <v>8.462333409599259</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.18194356748531</v>
+        <v>20.84843605653291</v>
       </c>
       <c r="N25">
-        <v>10.81183171764722</v>
+        <v>17.44714200147306</v>
       </c>
       <c r="O25">
-        <v>11.96188693877093</v>
+        <v>18.42983699214743</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_136/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.815046728013995</v>
+        <v>10.77673983594614</v>
       </c>
       <c r="C2">
-        <v>5.70633596196627</v>
+        <v>6.047845530308411</v>
       </c>
       <c r="D2">
-        <v>4.388557147948176</v>
+        <v>5.026764677284974</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.57419389904199</v>
+        <v>15.10646465099093</v>
       </c>
       <c r="G2">
-        <v>22.33688830220235</v>
+        <v>17.50261793045881</v>
       </c>
       <c r="H2">
-        <v>12.72332909067796</v>
+        <v>7.64268621158721</v>
       </c>
       <c r="I2">
-        <v>18.26488392962155</v>
+        <v>11.36097490164622</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.207227890698872</v>
+        <v>9.921376224410288</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.9702627975824</v>
+        <v>29.95279346377497</v>
       </c>
       <c r="N2">
-        <v>17.52886423546707</v>
+        <v>11.12301434540196</v>
       </c>
       <c r="O2">
-        <v>18.49877040484611</v>
+        <v>11.9259994859865</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.497506685765712</v>
+        <v>10.18860817820933</v>
       </c>
       <c r="C3">
-        <v>5.639841806035915</v>
+        <v>5.878531863678622</v>
       </c>
       <c r="D3">
-        <v>4.292823474867044</v>
+        <v>4.796230398971811</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.58850134445391</v>
+        <v>14.8089176542866</v>
       </c>
       <c r="G3">
-        <v>22.35810170889689</v>
+        <v>17.15116739579808</v>
       </c>
       <c r="H3">
-        <v>12.75971040644842</v>
+        <v>7.693049310226898</v>
       </c>
       <c r="I3">
-        <v>18.334547005731</v>
+        <v>11.47944320539161</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.02693027849134</v>
+        <v>9.50673042097306</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.3686812694531</v>
+        <v>27.67047060194229</v>
       </c>
       <c r="N3">
-        <v>17.58741963363986</v>
+        <v>11.33600294672579</v>
       </c>
       <c r="O3">
-        <v>18.55277244908273</v>
+        <v>11.92211787077381</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.292897430294553</v>
+        <v>9.807692942238891</v>
       </c>
       <c r="C4">
-        <v>5.598179885013691</v>
+        <v>5.770973169541211</v>
       </c>
       <c r="D4">
-        <v>4.232111532763306</v>
+        <v>4.647942914738757</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.60247818255181</v>
+        <v>14.63651805705859</v>
       </c>
       <c r="G4">
-        <v>22.37825398275167</v>
+        <v>16.95249189464787</v>
       </c>
       <c r="H4">
-        <v>12.78379279349314</v>
+        <v>7.727994978668782</v>
       </c>
       <c r="I4">
-        <v>18.38049201089119</v>
+        <v>11.56007541377028</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.912804917286582</v>
+        <v>9.240673861763101</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.9977209924962</v>
+        <v>26.21690178252298</v>
       </c>
       <c r="N4">
-        <v>17.62494880326924</v>
+        <v>11.4683172364243</v>
       </c>
       <c r="O4">
-        <v>18.58951484654808</v>
+        <v>11.92922561017361</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.207155235874332</v>
+        <v>9.647566805763237</v>
       </c>
       <c r="C5">
-        <v>5.58100310963731</v>
+        <v>5.726297314794087</v>
       </c>
       <c r="D5">
-        <v>4.206903565010457</v>
+        <v>4.585865406692082</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.60947859164298</v>
+        <v>14.56887870197693</v>
       </c>
       <c r="G5">
-        <v>22.38825359897006</v>
+        <v>16.87580126278114</v>
       </c>
       <c r="H5">
-        <v>12.79404535491305</v>
+        <v>7.74321864074598</v>
       </c>
       <c r="I5">
-        <v>18.40001218088663</v>
+        <v>11.59484249951331</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.865475436861673</v>
+        <v>9.129476378127585</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.84640825553386</v>
+        <v>25.6106759393571</v>
       </c>
       <c r="N5">
-        <v>17.64064010491474</v>
+        <v>11.52268786612966</v>
       </c>
       <c r="O5">
-        <v>18.60538781691321</v>
+        <v>11.93442093972008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.192777138102747</v>
+        <v>9.620684623611508</v>
       </c>
       <c r="C6">
-        <v>5.578139200691145</v>
+        <v>5.718829695483671</v>
       </c>
       <c r="D6">
-        <v>4.202690128599958</v>
+        <v>4.57545933458191</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.61071976949599</v>
+        <v>14.55780578392952</v>
       </c>
       <c r="G6">
-        <v>22.39002182045977</v>
+        <v>16.86332356198037</v>
       </c>
       <c r="H6">
-        <v>12.79577429349203</v>
+        <v>7.745805076610508</v>
       </c>
       <c r="I6">
-        <v>18.40330163068156</v>
+        <v>11.60072870629509</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.857567892835828</v>
+        <v>9.110847680063868</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.82128194377804</v>
+        <v>25.50915364346209</v>
       </c>
       <c r="N6">
-        <v>17.64326970970993</v>
+        <v>11.53174508230963</v>
       </c>
       <c r="O6">
-        <v>18.60807783843991</v>
+        <v>11.9354199007882</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.291750556965929</v>
+        <v>9.805553150708009</v>
       </c>
       <c r="C7">
-        <v>5.597949025494041</v>
+        <v>5.770373995047443</v>
       </c>
       <c r="D7">
-        <v>4.231773436720113</v>
+        <v>4.647112328413484</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.60256731132868</v>
+        <v>14.63559523252537</v>
       </c>
       <c r="G7">
-        <v>22.37838161116451</v>
+        <v>16.95144037803749</v>
       </c>
       <c r="H7">
-        <v>12.78392928618558</v>
+        <v>7.728196346978517</v>
       </c>
       <c r="I7">
-        <v>18.38075203930881</v>
+        <v>11.56053666293367</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.912169893666126</v>
+        <v>9.239185311437325</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.99568056979439</v>
+        <v>26.20878315959865</v>
       </c>
       <c r="N7">
-        <v>17.62515880868274</v>
+        <v>11.46904858980143</v>
       </c>
       <c r="O7">
-        <v>18.58972527213907</v>
+        <v>11.92928648408541</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.707593030972865</v>
+        <v>10.57810456856067</v>
       </c>
       <c r="C8">
-        <v>5.683588196532627</v>
+        <v>5.99024897264481</v>
       </c>
       <c r="D8">
-        <v>4.355959554726165</v>
+        <v>4.948700240870195</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.57804919311189</v>
+        <v>15.00175122143864</v>
       </c>
       <c r="G8">
-        <v>22.34272090556635</v>
+        <v>17.37786965706572</v>
       </c>
       <c r="H8">
-        <v>12.73551151245171</v>
+        <v>7.659199101834262</v>
       </c>
       <c r="I8">
-        <v>18.28824530297574</v>
+        <v>11.40013776590814</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.145793564847722</v>
+        <v>9.780844974804996</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.76331608163918</v>
+        <v>29.17619967554323</v>
       </c>
       <c r="N8">
-        <v>17.5487280139388</v>
+        <v>11.19617500237954</v>
       </c>
       <c r="O8">
-        <v>18.51664548844293</v>
+        <v>11.9226384720168</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.444381231060386</v>
+        <v>11.93312918150192</v>
       </c>
       <c r="C9">
-        <v>5.844455419620427</v>
+        <v>6.390248875564366</v>
       </c>
       <c r="D9">
-        <v>4.583424229520397</v>
+        <v>5.484955224859343</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.5711761033821</v>
+        <v>15.80009008682392</v>
       </c>
       <c r="G9">
-        <v>22.32950421458279</v>
+        <v>18.35082370940675</v>
       </c>
       <c r="H9">
-        <v>12.65439316384579</v>
+        <v>7.55713551800682</v>
       </c>
       <c r="I9">
-        <v>18.13201917438983</v>
+        <v>11.1518524969242</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.575228381192419</v>
+        <v>10.74797371305238</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.24554056551027</v>
+        <v>34.62118976253572</v>
       </c>
       <c r="N9">
-        <v>17.41127810301824</v>
+        <v>10.66985452299122</v>
       </c>
       <c r="O9">
-        <v>18.40183771785104</v>
+        <v>11.98882912292774</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.935377701262437</v>
+        <v>12.82791666250735</v>
       </c>
       <c r="C10">
-        <v>5.957748895119175</v>
+        <v>6.66153710044043</v>
       </c>
       <c r="D10">
-        <v>4.739839182718144</v>
+        <v>5.843367905035664</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.59122213115236</v>
+        <v>16.43368039987809</v>
       </c>
       <c r="G10">
-        <v>22.35451585171891</v>
+        <v>19.14996878088128</v>
       </c>
       <c r="H10">
-        <v>12.60321210214591</v>
+        <v>7.504287530880907</v>
       </c>
       <c r="I10">
-        <v>18.03260915605867</v>
+        <v>11.01519774654089</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.871331953332106</v>
+        <v>11.39551955371213</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.30749231459095</v>
+        <v>38.46237291194827</v>
       </c>
       <c r="N10">
-        <v>17.31776677671672</v>
+        <v>10.28271573741333</v>
       </c>
       <c r="O10">
-        <v>18.33493815727597</v>
+        <v>12.09112470584761</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.147459601278678</v>
+        <v>13.21248855218641</v>
       </c>
       <c r="C11">
-        <v>6.00810769963093</v>
+        <v>6.779217295136643</v>
       </c>
       <c r="D11">
-        <v>4.808502485489333</v>
+        <v>5.998341479477055</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.60577076146891</v>
+        <v>16.73179031353579</v>
       </c>
       <c r="G11">
-        <v>22.37343934784858</v>
+        <v>19.53209912986958</v>
       </c>
       <c r="H11">
-        <v>12.58175321156163</v>
+        <v>7.485467802276748</v>
       </c>
       <c r="I11">
-        <v>17.99072682809769</v>
+        <v>10.96423812104814</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.001468053454982</v>
+        <v>11.67541163342485</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.78233578281947</v>
+        <v>40.19575928670074</v>
       </c>
       <c r="N11">
-        <v>17.27682609354684</v>
+        <v>10.10479769362436</v>
       </c>
       <c r="O11">
-        <v>18.30830735837555</v>
+        <v>12.15046989154549</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.226125433879119</v>
+        <v>13.35482992829772</v>
       </c>
       <c r="C12">
-        <v>6.026998205906953</v>
+        <v>6.822876570076616</v>
       </c>
       <c r="D12">
-        <v>4.834132582110074</v>
+        <v>6.055836990090287</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.61205773363071</v>
+        <v>16.84608073212035</v>
       </c>
       <c r="G12">
-        <v>22.38168847531701</v>
+        <v>19.67951659585289</v>
       </c>
       <c r="H12">
-        <v>12.57388932554865</v>
+        <v>7.479126256091454</v>
       </c>
       <c r="I12">
-        <v>17.97534782378479</v>
+        <v>10.94666526757735</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.05006432429426</v>
+        <v>11.77920021871795</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.96078560850403</v>
+        <v>40.85242392739499</v>
       </c>
       <c r="N12">
-        <v>17.26155099791131</v>
+        <v>10.03697860771535</v>
       </c>
       <c r="O12">
-        <v>18.29877077804568</v>
+        <v>12.17488049691038</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.209256828222941</v>
+        <v>13.32432136529249</v>
       </c>
       <c r="C13">
-        <v>6.022937922318159</v>
+        <v>6.813515360100856</v>
       </c>
       <c r="D13">
-        <v>4.828629388123741</v>
+        <v>6.043507688607937</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.61066918886039</v>
+        <v>16.82140399991431</v>
       </c>
       <c r="G13">
-        <v>22.37986374544305</v>
+        <v>19.64764601989317</v>
       </c>
       <c r="H13">
-        <v>12.57557129748227</v>
+        <v>7.480456568607238</v>
       </c>
       <c r="I13">
-        <v>17.97863856748709</v>
+        <v>10.95037133993891</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.039629055305912</v>
+        <v>11.75694687990358</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.92241651172361</v>
+        <v>40.71094429988826</v>
       </c>
       <c r="N13">
-        <v>17.26483063618093</v>
+        <v>10.05160795623846</v>
       </c>
       <c r="O13">
-        <v>18.30080026430717</v>
+        <v>12.16953550181919</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.15396457367827</v>
+        <v>13.22426530172229</v>
       </c>
       <c r="C14">
-        <v>6.009665480559086</v>
+        <v>6.782827781735618</v>
       </c>
       <c r="D14">
-        <v>4.810618599431809</v>
+        <v>6.00309568233525</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.60627242789408</v>
+        <v>16.74116499849881</v>
       </c>
       <c r="G14">
-        <v>22.37409631463606</v>
+        <v>19.54417255798394</v>
       </c>
       <c r="H14">
-        <v>12.58110099205699</v>
+        <v>7.48493015194455</v>
       </c>
       <c r="I14">
-        <v>17.98945194584143</v>
+        <v>10.96275716333556</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.005479943631043</v>
+        <v>11.68399502793424</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.79704523091957</v>
+        <v>40.24976277289337</v>
       </c>
       <c r="N14">
-        <v>17.2755648366111</v>
+        <v>10.09922834031097</v>
       </c>
       <c r="O14">
-        <v>18.30751179050232</v>
+        <v>12.15243877315712</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.119881623120257</v>
+        <v>13.16254812896044</v>
       </c>
       <c r="C15">
-        <v>6.001512095966385</v>
+        <v>6.763910496255682</v>
       </c>
       <c r="D15">
-        <v>4.799537760299351</v>
+        <v>5.978186356005357</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.60368046382208</v>
+        <v>16.69219865160292</v>
       </c>
       <c r="G15">
-        <v>22.37070458546194</v>
+        <v>19.48114701232923</v>
       </c>
       <c r="H15">
-        <v>12.58452222358148</v>
+        <v>7.487773595220856</v>
       </c>
       <c r="I15">
-        <v>17.99613810292411</v>
+        <v>10.97057186589559</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.984472849702636</v>
+        <v>11.63902054250545</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.7200692142139</v>
+        <v>39.96738911905818</v>
       </c>
       <c r="N15">
-        <v>17.28216952345553</v>
+        <v>10.12833286675827</v>
       </c>
       <c r="O15">
-        <v>18.31169418359076</v>
+        <v>12.14222177701406</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.921288639885542</v>
+        <v>12.80232713953583</v>
       </c>
       <c r="C16">
-        <v>5.954433263851292</v>
+        <v>6.653724569176597</v>
       </c>
       <c r="D16">
-        <v>4.735300615628509</v>
+        <v>5.833075151034118</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.59038035800446</v>
+        <v>16.41439521267706</v>
       </c>
       <c r="G16">
-        <v>22.35343086664999</v>
+        <v>19.12537260037011</v>
       </c>
       <c r="H16">
-        <v>12.60465117819586</v>
+        <v>7.505625452093236</v>
       </c>
       <c r="I16">
-        <v>18.03541352638633</v>
+        <v>11.01876309923301</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.862733050284003</v>
+        <v>11.37692507409387</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.27627870391644</v>
+        <v>38.34899194103763</v>
       </c>
       <c r="N16">
-        <v>17.32047437178367</v>
+        <v>10.29429192876552</v>
       </c>
       <c r="O16">
-        <v>18.33675515460866</v>
+        <v>12.08751228013403</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.796552146661381</v>
+        <v>12.57554957101497</v>
       </c>
       <c r="C17">
-        <v>5.925242918482562</v>
+        <v>6.584608193226263</v>
       </c>
       <c r="D17">
-        <v>4.695245661195078</v>
+        <v>5.741966592493338</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.58360989454716</v>
+        <v>16.24648621366084</v>
       </c>
       <c r="G17">
-        <v>22.34476572046909</v>
+        <v>18.9118993407118</v>
       </c>
       <c r="H17">
-        <v>12.61746664033268</v>
+        <v>7.517938801524665</v>
       </c>
       <c r="I17">
-        <v>18.06036359548493</v>
+        <v>11.05127548946269</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.786860812628836</v>
+        <v>11.21231663774353</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.001784180187</v>
+        <v>37.35401707835312</v>
       </c>
       <c r="N17">
-        <v>17.34438136186636</v>
+        <v>10.39552163489305</v>
       </c>
       <c r="O17">
-        <v>18.3531039391557</v>
+        <v>12.05729842391009</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.723746858487164</v>
+        <v>12.44300155864117</v>
       </c>
       <c r="C18">
-        <v>5.908342995178542</v>
+        <v>6.544320212482245</v>
       </c>
       <c r="D18">
-        <v>4.671973389993168</v>
+        <v>5.688805470501663</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.58022699238306</v>
+        <v>16.15084043828931</v>
       </c>
       <c r="G18">
-        <v>22.34049217746954</v>
+        <v>18.79086198025124</v>
       </c>
       <c r="H18">
-        <v>12.62500941037468</v>
+        <v>7.525510502065948</v>
       </c>
       <c r="I18">
-        <v>18.07502853113309</v>
+        <v>11.07102331201119</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.742793113479406</v>
+        <v>11.11626208527056</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.84313574337649</v>
+        <v>36.78025138211378</v>
       </c>
       <c r="N18">
-        <v>17.35828254279016</v>
+        <v>10.45358963231593</v>
       </c>
       <c r="O18">
-        <v>18.36286513886711</v>
+        <v>12.04112019445351</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.698914955424161</v>
+        <v>12.39776203384124</v>
       </c>
       <c r="C19">
-        <v>5.902602311426532</v>
+        <v>6.530589914670661</v>
       </c>
       <c r="D19">
-        <v>4.66405407260381</v>
+        <v>5.670676738470693</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.5791694946766</v>
+        <v>16.11861713048479</v>
       </c>
       <c r="G19">
-        <v>22.33916727853104</v>
+        <v>18.7501800389119</v>
       </c>
       <c r="H19">
-        <v>12.62759274784559</v>
+        <v>7.528157148528317</v>
       </c>
       <c r="I19">
-        <v>18.08004779031709</v>
+        <v>11.07788615048875</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.727799908197197</v>
+        <v>11.08350592365638</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.7892941729107</v>
+        <v>36.58566950237842</v>
       </c>
       <c r="N19">
-        <v>17.36301514163209</v>
+        <v>10.47322847924922</v>
       </c>
       <c r="O19">
-        <v>18.36623153024982</v>
+        <v>12.03584573238353</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.809940467821311</v>
+        <v>12.59990935462011</v>
       </c>
       <c r="C20">
-        <v>5.928361779175539</v>
+        <v>6.592021563875829</v>
       </c>
       <c r="D20">
-        <v>4.699533866682298</v>
+        <v>5.751743901292283</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.58427772511873</v>
+        <v>16.26426423695583</v>
       </c>
       <c r="G20">
-        <v>22.34561462338402</v>
+        <v>18.93444294471813</v>
       </c>
       <c r="H20">
-        <v>12.61608464762225</v>
+        <v>7.516577124226677</v>
       </c>
       <c r="I20">
-        <v>18.05767508277654</v>
+        <v>11.04770527054308</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.794982042618942</v>
+        <v>11.22998253525321</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.03108525801113</v>
+        <v>37.46007266059396</v>
       </c>
       <c r="N20">
-        <v>17.34182085571151</v>
+        <v>10.38476297046475</v>
       </c>
       <c r="O20">
-        <v>18.35132654218619</v>
+        <v>12.06038985921713</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.170250059147595</v>
+        <v>13.25374390513437</v>
       </c>
       <c r="C21">
-        <v>6.013568859955295</v>
+        <v>6.791866689770856</v>
       </c>
       <c r="D21">
-        <v>4.81591897777867</v>
+        <v>6.01499819182685</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.60754278405679</v>
+        <v>16.7646951465929</v>
       </c>
       <c r="G21">
-        <v>22.37576097208438</v>
+        <v>19.57449114228383</v>
       </c>
       <c r="H21">
-        <v>12.57946967342684</v>
+        <v>7.483594576243941</v>
       </c>
       <c r="I21">
-        <v>17.98626273695202</v>
+        <v>10.95907141631093</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.01552912055738</v>
+        <v>11.70548323294712</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.83390813780775</v>
+        <v>40.38519434611703</v>
       </c>
       <c r="N21">
-        <v>17.27240575940581</v>
+        <v>10.08525488918399</v>
       </c>
       <c r="O21">
-        <v>18.30552557308283</v>
+        <v>12.15740713027048</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.396137145121415</v>
+        <v>13.66186669414954</v>
       </c>
       <c r="C22">
-        <v>6.068207363274011</v>
+        <v>6.917162447234844</v>
       </c>
       <c r="D22">
-        <v>4.889814399258841</v>
+        <v>6.180101263776288</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.62727905507231</v>
+        <v>17.09993486695039</v>
       </c>
       <c r="G22">
-        <v>22.40177533877164</v>
+        <v>20.00865421821668</v>
       </c>
       <c r="H22">
-        <v>12.55706751663458</v>
+        <v>7.46662963567881</v>
       </c>
       <c r="I22">
-        <v>17.94239415669161</v>
+        <v>10.91125177831876</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.155674635604502</v>
+        <v>12.00337490983945</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.35058404071782</v>
+        <v>42.3000628422057</v>
       </c>
       <c r="N22">
-        <v>17.22836868970705</v>
+        <v>9.886787829604753</v>
       </c>
       <c r="O22">
-        <v>18.27878620099404</v>
+        <v>12.2321551293186</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.276461651825253</v>
+        <v>13.4458212030972</v>
       </c>
       <c r="C23">
-        <v>6.039144899836333</v>
+        <v>6.850805956110559</v>
       </c>
       <c r="D23">
-        <v>4.850577520022016</v>
+        <v>6.092628498436007</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.61633203151037</v>
+        <v>16.92026473601428</v>
       </c>
       <c r="G23">
-        <v>22.38731438519773</v>
+        <v>19.77546163110424</v>
       </c>
       <c r="H23">
-        <v>12.5688842064185</v>
+        <v>7.475253017052985</v>
       </c>
       <c r="I23">
-        <v>17.96555089703722</v>
+        <v>10.93581037570211</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.081250302938166</v>
+        <v>11.84559489351958</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.07561196366596</v>
+        <v>41.27684345091053</v>
       </c>
       <c r="N23">
-        <v>17.25175094731483</v>
+        <v>9.993037464203431</v>
       </c>
       <c r="O23">
-        <v>18.29276487078497</v>
+        <v>12.19119071481352</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.803891009238301</v>
+        <v>12.58890305316078</v>
       </c>
       <c r="C24">
-        <v>5.926952109072104</v>
+        <v>6.58867169269963</v>
       </c>
       <c r="D24">
-        <v>4.697595928434599</v>
+        <v>5.747326012310807</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.58397421163099</v>
+        <v>16.25622402706407</v>
       </c>
       <c r="G24">
-        <v>22.345228628477</v>
+        <v>18.9242457159493</v>
       </c>
       <c r="H24">
-        <v>12.6167089014635</v>
+        <v>7.517191206834041</v>
       </c>
       <c r="I24">
-        <v>18.05888956017525</v>
+        <v>11.04931608576445</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.791311827051986</v>
+        <v>11.2220001961417</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.01784083686032</v>
+        <v>37.41213051908319</v>
       </c>
       <c r="N24">
-        <v>17.34297797223591</v>
+        <v>10.38962735521399</v>
       </c>
       <c r="O24">
-        <v>18.35212897569277</v>
+        <v>12.05898851534655</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.253755656888031</v>
+        <v>11.58404029081663</v>
       </c>
       <c r="C25">
-        <v>5.801755054863947</v>
+        <v>6.285740465143554</v>
       </c>
       <c r="D25">
-        <v>4.523707206124109</v>
+        <v>5.346004794201206</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.56862371861476</v>
+        <v>15.57571841449431</v>
       </c>
       <c r="G25">
-        <v>22.32698788862977</v>
+        <v>18.07286811649248</v>
       </c>
       <c r="H25">
-        <v>12.6748587925013</v>
+        <v>7.580997537647718</v>
       </c>
       <c r="I25">
-        <v>18.17158493683058</v>
+        <v>11.21139430467776</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.462333409599259</v>
+        <v>10.49705891731529</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84843605653291</v>
+        <v>33.18194356748521</v>
       </c>
       <c r="N25">
-        <v>17.44714200147306</v>
+        <v>10.81183171764715</v>
       </c>
       <c r="O25">
-        <v>18.42983699214743</v>
+        <v>11.96188693877083</v>
       </c>
     </row>
   </sheetData>
